--- a/TeamFriends_Keepers.xlsx
+++ b/TeamFriends_Keepers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podrobin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podrobin\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2CE43A-67EA-4BF6-8AA3-F4F77AA4328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82927DAB-6F3B-4F44-8623-513213B8C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{521D0275-5D62-4222-97B6-2F55EF26ED09}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="511">
   <si>
     <t>Trade Deadline</t>
   </si>
@@ -1563,12 +1563,24 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Add Date</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>add Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1643,7 +1655,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,11 +1690,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1773,9 +1793,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1813,7 +1833,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1919,7 +1939,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2061,7 +2081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2165,38 +2185,38 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="V4" s="16" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3420,38 +3440,38 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="H23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="O23" s="16" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="O23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="V23" s="16" t="s">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="V23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -4665,38 +4685,38 @@
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="O44" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="V44" s="16" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="O44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="V44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -5978,38 +5998,38 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="V4" s="16" t="s">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7239,38 +7259,38 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="H23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="O23" s="16" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="O23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="V23" s="16" t="s">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="V23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
     </row>
     <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -8444,38 +8464,38 @@
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="O44" s="16" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="O44" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="V44" s="16" t="s">
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="V44" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -9680,10 +9700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4129C0-B280-4886-A5FB-3BA8DDB890C2}">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE52" sqref="AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9692,124 +9712,132 @@
     <col min="2" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="10" width="6" customWidth="1"/>
-    <col min="11" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
-    <col min="16" max="17" width="6" customWidth="1"/>
-    <col min="18" max="19" width="8.42578125" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" customWidth="1"/>
-    <col min="23" max="24" width="6" customWidth="1"/>
-    <col min="25" max="26" width="8.42578125" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" customWidth="1"/>
-    <col min="29" max="29" width="18.85546875" customWidth="1"/>
-    <col min="30" max="31" width="6" customWidth="1"/>
-    <col min="32" max="33" width="8.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.85546875" customWidth="1"/>
-    <col min="37" max="38" width="6" customWidth="1"/>
-    <col min="39" max="39" width="8.42578125" customWidth="1"/>
-    <col min="40" max="40" width="8.28515625" customWidth="1"/>
-    <col min="41" max="41" width="9.7109375" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" customWidth="1"/>
-    <col min="44" max="45" width="6" customWidth="1"/>
-    <col min="46" max="46" width="8.42578125" customWidth="1"/>
-    <col min="47" max="47" width="8.28515625" customWidth="1"/>
-    <col min="48" max="48" width="9.7109375" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" customWidth="1"/>
-    <col min="51" max="52" width="6" customWidth="1"/>
-    <col min="53" max="53" width="8.42578125" customWidth="1"/>
-    <col min="54" max="54" width="8.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" customWidth="1"/>
-    <col min="57" max="57" width="18.85546875" customWidth="1"/>
-    <col min="58" max="59" width="6" customWidth="1"/>
-    <col min="60" max="60" width="8.42578125" customWidth="1"/>
-    <col min="61" max="61" width="8.28515625" customWidth="1"/>
-    <col min="62" max="62" width="9.7109375" customWidth="1"/>
-    <col min="64" max="64" width="18.85546875" customWidth="1"/>
-    <col min="65" max="66" width="6" customWidth="1"/>
-    <col min="67" max="67" width="8.42578125" customWidth="1"/>
-    <col min="68" max="68" width="8.28515625" customWidth="1"/>
-    <col min="69" max="69" width="9.7109375" customWidth="1"/>
-    <col min="71" max="71" width="18.85546875" customWidth="1"/>
-    <col min="72" max="73" width="6" customWidth="1"/>
-    <col min="74" max="75" width="8.28515625" customWidth="1"/>
-    <col min="76" max="76" width="9.7109375" customWidth="1"/>
-    <col min="78" max="78" width="18.85546875" customWidth="1"/>
-    <col min="79" max="80" width="6" customWidth="1"/>
-    <col min="81" max="82" width="8.28515625" customWidth="1"/>
-    <col min="83" max="83" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="19" width="6" customWidth="1"/>
+    <col min="20" max="21" width="8.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="20" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" customWidth="1"/>
+    <col min="26" max="27" width="6" customWidth="1"/>
+    <col min="28" max="29" width="8.42578125" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="20" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="35" width="6" customWidth="1"/>
+    <col min="36" max="37" width="8.42578125" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" customWidth="1"/>
+    <col min="40" max="40" width="18.85546875" customWidth="1"/>
+    <col min="41" max="42" width="6" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" customWidth="1"/>
+    <col min="48" max="49" width="6" customWidth="1"/>
+    <col min="50" max="50" width="8.42578125" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" customWidth="1"/>
+    <col min="52" max="52" width="9.7109375" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" customWidth="1"/>
+    <col min="55" max="56" width="6" customWidth="1"/>
+    <col min="57" max="57" width="8.42578125" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" customWidth="1"/>
+    <col min="59" max="59" width="9.7109375" customWidth="1"/>
+    <col min="61" max="61" width="18.85546875" customWidth="1"/>
+    <col min="62" max="63" width="6" customWidth="1"/>
+    <col min="64" max="64" width="8.42578125" customWidth="1"/>
+    <col min="65" max="65" width="8.28515625" customWidth="1"/>
+    <col min="66" max="66" width="9.7109375" customWidth="1"/>
+    <col min="68" max="68" width="18.85546875" customWidth="1"/>
+    <col min="69" max="70" width="6" customWidth="1"/>
+    <col min="71" max="71" width="8.42578125" customWidth="1"/>
+    <col min="72" max="72" width="8.28515625" customWidth="1"/>
+    <col min="73" max="73" width="9.7109375" customWidth="1"/>
+    <col min="75" max="75" width="18.85546875" customWidth="1"/>
+    <col min="76" max="77" width="6" customWidth="1"/>
+    <col min="78" max="79" width="8.28515625" customWidth="1"/>
+    <col min="80" max="80" width="9.7109375" customWidth="1"/>
+    <col min="82" max="82" width="18.85546875" customWidth="1"/>
+    <col min="83" max="84" width="6" customWidth="1"/>
+    <col min="85" max="86" width="8.28515625" customWidth="1"/>
+    <col min="87" max="87" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45248</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="I4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="O4" s="16" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="21"/>
+      <c r="Q4" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="V4" s="16" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="21"/>
+      <c r="Y4" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="21"/>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -9828,62 +9856,74 @@
       <c r="F5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>347</v>
       </c>
@@ -9903,65 +9943,77 @@
         <f t="shared" ref="F6:F19" si="0">IF(D6="--",13,D6-E6-1)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="9">
-        <v>3</v>
-      </c>
       <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>IF(K6="--",13,K6-L6-1)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>IF(L6="--",13,L6-M6-1)</f>
         <v>2</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="10">
+      <c r="T6" s="10">
         <v>4</v>
       </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <f t="shared" ref="T6:T19" si="1">IF(R6="--",13,R6-S6-1)</f>
-        <v>3</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" ref="V6:V19" si="1">IF(T6="--",13,T6-U6-1)</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="19">
+        <v>45252</v>
+      </c>
+      <c r="Y6" t="s">
         <v>361</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>297</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>35</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>6</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ref="AA6:AA20" si="2">IF(Y6="--",13,Y6-Z6-1)</f>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD20" si="2">IF(AB6="--",13,AB6-AC6-1)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>407</v>
       </c>
@@ -9981,65 +10033,77 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="K7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M19" si="3">IF(K7="--",13,K7-L7-1)</f>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N19" si="3">IF(L7="--",13,L7-M7-1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="9">
         <v>2</v>
       </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7">
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="W7" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="X7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="9">
+      <c r="AA7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" s="9">
         <v>2</v>
       </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -10059,65 +10123,77 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="K8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="R8" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="10">
         <v>8</v>
       </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="W8" s="19">
+        <v>45266</v>
+      </c>
+      <c r="Y8" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="Z8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="X8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="9">
+      <c r="AA8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB8" s="9">
         <v>1</v>
       </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>452</v>
       </c>
@@ -10127,7 +10203,7 @@
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E9" s="10">
@@ -10137,65 +10213,77 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="19">
+        <v>45280</v>
+      </c>
+      <c r="I9" t="s">
         <v>336</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>273</v>
       </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="9">
-        <v>3</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9">
+        <v>3</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y9" t="s">
         <v>248</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>289</v>
       </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9">
+      <c r="AA9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9">
         <v>5</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>453</v>
       </c>
@@ -10205,7 +10293,7 @@
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E10" s="10">
@@ -10215,65 +10303,77 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="19">
+        <v>45280</v>
+      </c>
+      <c r="I10" t="s">
         <v>323</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>245</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="9">
         <v>1</v>
       </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y10" t="s">
         <v>328</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>260</v>
       </c>
-      <c r="X10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="17" t="s">
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="20">
+        <v>45220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>424</v>
       </c>
@@ -10283,7 +10383,7 @@
       <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E11" s="10">
@@ -10293,65 +10393,77 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="19">
+        <v>45259</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
       <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="19">
+        <v>45259</v>
+      </c>
+      <c r="Q11" t="s">
         <v>395</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>43</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>14</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y11" t="s">
         <v>337</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>43</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>14</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="20">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -10371,65 +10483,77 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I12" t="s">
         <v>252</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>253</v>
       </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q12" t="s">
         <v>333</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>263</v>
       </c>
-      <c r="Q12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12">
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12">
         <v>8</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y12" t="s">
         <v>406</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Z12" t="s">
         <v>293</v>
       </c>
-      <c r="X12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12">
+      <c r="AA12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB12">
         <v>12</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="20">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>385</v>
       </c>
@@ -10449,65 +10573,77 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I13" t="s">
         <v>487</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>260</v>
       </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13">
         <v>8</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="O13" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q13" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="R13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="10">
-        <v>13</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0</v>
+      <c r="S13" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="T13" s="10">
+        <v>13</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="W13" s="19">
+        <v>45259</v>
+      </c>
+      <c r="Y13" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="Z13" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="X13" s="10" t="s">
+      <c r="AA13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="18" t="s">
+      <c r="AB13" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="10">
+      <c r="AC13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="19">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -10527,65 +10663,77 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I14" t="s">
         <v>402</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>279</v>
       </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="R14" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="S14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="T14" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" s="19">
+        <v>45270</v>
+      </c>
+      <c r="Y14" t="s">
         <v>348</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Z14" t="s">
         <v>256</v>
       </c>
-      <c r="X14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14">
+      <c r="AA14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB14">
         <v>4</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>456</v>
       </c>
@@ -10605,65 +10753,77 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" t="s">
         <v>488</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>284</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>43</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q15" t="s">
         <v>357</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>342</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>35</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>9</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="W15" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y15" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="Z15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="X15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="10">
+      <c r="AA15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="10">
         <v>8</v>
       </c>
-      <c r="Z15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="10">
+      <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="19">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>259</v>
       </c>
@@ -10673,7 +10833,7 @@
       <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E16" s="10">
@@ -10683,65 +10843,77 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="19">
+        <v>45288</v>
+      </c>
+      <c r="I16" t="s">
         <v>489</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>247</v>
       </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16">
         <v>11</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
       <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="R16" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="10">
         <v>9</v>
       </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" s="19">
+        <v>45252</v>
+      </c>
+      <c r="Y16" t="s">
         <v>306</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Z16" t="s">
         <v>304</v>
       </c>
-      <c r="X16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16">
+      <c r="AA16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16">
         <v>11</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>335</v>
       </c>
@@ -10761,65 +10933,77 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
       <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="19">
+        <v>45291</v>
+      </c>
+      <c r="Q17" t="s">
         <v>423</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>381</v>
       </c>
-      <c r="Q17" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17">
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17">
         <v>9</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="W17" s="20">
+        <v>45210</v>
+      </c>
+      <c r="Y17" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="Z17" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="AA17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" s="18" t="s">
+      <c r="AB17" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="10">
+      <c r="AC17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="19">
+        <v>45248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -10839,65 +11023,77 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="20">
+        <v>45222</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
       <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="19">
+        <v>45280</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="R18" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="10">
+      <c r="T18" s="10">
         <v>14</v>
       </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V18" s="9" t="s">
+      <c r="W18" s="19">
+        <v>45259</v>
+      </c>
+      <c r="Y18" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="W18" s="9" t="s">
+      <c r="Z18" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="AA18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18">
+      <c r="AB18" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>457</v>
       </c>
@@ -10917,122 +11113,141 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="20">
+        <v>45196</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
       <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="19">
+        <v>45266</v>
+      </c>
+      <c r="Q19" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="S19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="T19" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="V19" s="10" t="s">
+      <c r="W19" s="19">
+        <v>45266</v>
+      </c>
+      <c r="Y19" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="Z19" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="AA19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="18" t="s">
+      <c r="AB19" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="10">
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V20" t="s">
+      <c r="AE19" s="19">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
         <v>359</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Z20" t="s">
         <v>253</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>49</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>7</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="AE20" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="21"/>
+      <c r="I23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="O23" s="16" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="21"/>
+      <c r="Q23" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="V23" s="16" t="s">
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="21"/>
+      <c r="Y23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-    </row>
-    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="21"/>
+    </row>
+    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -11051,62 +11266,74 @@
       <c r="F24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="V24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AD24" s="12" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>309</v>
       </c>
@@ -11126,65 +11353,77 @@
         <f>IF(D25="--",13,D25-E25-1)</f>
         <v>2</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I25" t="s">
         <v>298</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>92</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>35</v>
       </c>
-      <c r="K25">
-        <v>13</v>
-      </c>
       <c r="L25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M38" si="4">IF(K25="--",13,K25-L25-1)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N38" si="4">IF(L25="--",13,L25-M25-1)</f>
         <v>12</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q25" t="s">
         <v>467</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>273</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="T25" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" ref="T25:T40" si="5">IF(R25="--",13,R25-S25-1)</f>
-        <v>13</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V40" si="5">IF(T25="--",13,T25-U25-1)</f>
+        <v>13</v>
+      </c>
+      <c r="W25" s="20">
+        <v>45231</v>
+      </c>
+      <c r="Y25" t="s">
         <v>376</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Z25" t="s">
         <v>289</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AA25" t="s">
         <v>35</v>
       </c>
-      <c r="Y25">
+      <c r="AB25">
         <v>8</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" ref="AA25:AA39" si="6">IF(Y25="--",13,Y25-Z25-1)</f>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" ref="AD25:AD39" si="6">IF(AB25="--",13,AB25-AC25-1)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>396</v>
       </c>
@@ -11204,65 +11443,77 @@
         <f t="shared" ref="F26:F38" si="7">IF(D26="--",13,D26-E26-1)</f>
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I26" t="s">
         <v>448</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>64</v>
       </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26">
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26">
         <v>14</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q26" t="s">
         <v>272</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>369</v>
       </c>
-      <c r="Q26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26">
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26">
         <v>4</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="W26" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y26" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="W26" s="9" t="s">
+      <c r="Z26" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="X26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y26" s="9">
+      <c r="AA26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB26" s="9">
         <v>1</v>
       </c>
-      <c r="Z26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>286</v>
       </c>
@@ -11282,65 +11533,77 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="K27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="9">
         <v>2</v>
       </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="R27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="10">
         <v>10</v>
       </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="W27" s="19">
+        <v>45273</v>
+      </c>
+      <c r="Y27" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="W27" s="9" t="s">
+      <c r="Z27" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="X27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="9">
+      <c r="AA27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB27" s="9">
         <v>5</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="AC27" s="9">
         <v>2</v>
       </c>
-      <c r="AA27">
+      <c r="AD27">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>254</v>
       </c>
@@ -11360,65 +11623,77 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I28" t="s">
         <v>339</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>263</v>
       </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28">
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="R28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="9">
+      <c r="S28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="9">
         <v>1</v>
       </c>
-      <c r="S28" s="9">
-        <v>0</v>
-      </c>
-      <c r="T28">
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y28" t="s">
         <v>261</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Z28" t="s">
         <v>143</v>
       </c>
-      <c r="X28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y28">
+      <c r="AA28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB28">
         <v>4</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>493</v>
       </c>
@@ -11428,7 +11703,7 @@
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E29" s="10">
@@ -11438,65 +11713,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="19">
+        <v>45287</v>
+      </c>
+      <c r="I29" t="s">
         <v>449</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>293</v>
       </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="20">
+        <v>45190</v>
+      </c>
+      <c r="Q29" t="s">
         <v>351</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>89</v>
       </c>
-      <c r="Q29" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29">
-        <v>13</v>
-      </c>
-      <c r="S29">
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29">
+        <v>13</v>
+      </c>
+      <c r="U29">
         <v>1</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y29" t="s">
         <v>463</v>
       </c>
-      <c r="W29" t="s">
+      <c r="Z29" t="s">
         <v>64</v>
       </c>
-      <c r="X29" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y29" s="17" t="s">
+      <c r="AA29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB29" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="20">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>494</v>
       </c>
@@ -11506,7 +11793,7 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E30">
@@ -11516,65 +11803,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="20">
+        <v>45231</v>
+      </c>
+      <c r="I30" t="s">
         <v>430</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>275</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>43</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q30" t="s">
         <v>270</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>43</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>5</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V30" s="10" t="s">
+      <c r="W30" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y30" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="Z30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="AA30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="AB30" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="10">
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="19">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>377</v>
       </c>
@@ -11594,65 +11893,77 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I31" t="s">
         <v>354</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>91</v>
       </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31">
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31">
         <v>11</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
       <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q31" t="s">
         <v>469</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>342</v>
       </c>
-      <c r="Q31" t="s">
-        <v>40</v>
-      </c>
-      <c r="R31">
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31">
         <v>11</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="V31" s="9" t="s">
+      <c r="W31" s="20">
+        <v>45196</v>
+      </c>
+      <c r="Y31" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="W31" s="9" t="s">
+      <c r="Z31" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="X31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y31" s="9">
+      <c r="AA31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB31" s="9">
         <v>2</v>
       </c>
-      <c r="Z31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA31">
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>495</v>
       </c>
@@ -11662,7 +11973,7 @@
       <c r="C32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E32" s="10">
@@ -11672,65 +11983,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" s="19">
+        <v>45262</v>
+      </c>
+      <c r="I32" t="s">
         <v>450</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>263</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>43</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>9</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O32" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="R32" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="9">
+      <c r="S32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="9">
         <v>2</v>
       </c>
-      <c r="S32" s="9">
-        <v>0</v>
-      </c>
-      <c r="T32">
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y32" t="s">
         <v>370</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Z32" t="s">
         <v>245</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AA32" t="s">
         <v>43</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>6</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>496</v>
       </c>
@@ -11740,7 +12063,7 @@
       <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E33">
@@ -11750,65 +12073,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="20">
+        <v>45245</v>
+      </c>
+      <c r="I33" t="s">
         <v>451</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>304</v>
       </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33">
+      <c r="K33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33">
         <v>8</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q33" t="s">
         <v>470</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>143</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="17" t="s">
+      <c r="T33" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" s="20">
+        <v>45231</v>
+      </c>
+      <c r="Y33" t="s">
         <v>465</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Z33" t="s">
         <v>38</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AA33" t="s">
         <v>43</v>
       </c>
-      <c r="Y33" s="17" t="s">
+      <c r="AB33" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="20">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>400</v>
       </c>
@@ -11818,7 +12153,7 @@
       <c r="C34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E34" s="10">
@@ -11828,65 +12163,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" s="19">
+        <v>45273</v>
+      </c>
+      <c r="I34" t="s">
         <v>319</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>297</v>
       </c>
-      <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34">
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34">
         <v>6</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
       <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q34" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="R34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="S34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="T34" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
-      <c r="T34" s="10">
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" s="19">
+        <v>45273</v>
+      </c>
+      <c r="Y34" t="s">
         <v>372</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Z34" t="s">
         <v>243</v>
       </c>
-      <c r="X34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y34">
+      <c r="AA34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34">
         <v>12</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE34" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>497</v>
       </c>
@@ -11896,7 +12243,7 @@
       <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>507</v>
       </c>
       <c r="E35" s="10">
@@ -11906,65 +12253,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="G35" s="19">
+        <v>45287</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="9">
-        <v>3</v>
-      </c>
       <c r="L35" s="9">
+        <v>3</v>
+      </c>
+      <c r="M35" s="9">
         <v>1</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q35" t="s">
         <v>472</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>279</v>
       </c>
-      <c r="Q35" t="s">
-        <v>40</v>
-      </c>
-      <c r="R35">
+      <c r="S35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35">
         <v>6</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y35" t="s">
         <v>414</v>
       </c>
-      <c r="W35" t="s">
+      <c r="Z35" t="s">
         <v>66</v>
       </c>
-      <c r="X35" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y35">
+      <c r="AA35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB35">
         <v>8</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="20">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>498</v>
       </c>
@@ -11974,7 +12333,7 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E36">
@@ -11984,65 +12343,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" s="20">
+        <v>45238</v>
+      </c>
+      <c r="I36" t="s">
         <v>355</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>247</v>
       </c>
-      <c r="J36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36">
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36">
         <v>7</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
       <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q36" t="s">
         <v>473</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>313</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>35</v>
       </c>
-      <c r="R36" s="17" t="s">
+      <c r="T36" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="V36" s="9" t="s">
+      <c r="W36" s="20">
+        <v>45227</v>
+      </c>
+      <c r="Y36" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="W36" s="9" t="s">
+      <c r="Z36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="X36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="AA36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD36">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>499</v>
       </c>
@@ -12052,7 +12423,7 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E37">
@@ -12062,65 +12433,77 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" s="20">
+        <v>45217</v>
+      </c>
+      <c r="I37" t="s">
         <v>262</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>263</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>48</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="R37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R37" s="9">
-        <v>3</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0</v>
-      </c>
-      <c r="T37">
+      <c r="S37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="9">
+        <v>3</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y37" t="s">
         <v>325</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Z37" t="s">
         <v>41</v>
       </c>
-      <c r="X37" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y37" s="17" t="s">
+      <c r="AA37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB37" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="20">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>418</v>
       </c>
@@ -12140,163 +12523,188 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" s="19">
+        <v>45281</v>
+      </c>
+      <c r="I38" t="s">
         <v>282</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>245</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>49</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>10</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O38" s="10" t="s">
+      <c r="O38" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q38" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="R38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="10">
+      <c r="S38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="10">
         <v>9</v>
       </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="V38" s="10" t="s">
+      <c r="W38" s="19">
+        <v>45268</v>
+      </c>
+      <c r="Y38" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="W38" s="10" t="s">
+      <c r="Z38" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="AA38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="AB38" s="10">
         <v>8</v>
       </c>
-      <c r="Z38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="10">
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O39" t="s">
+      <c r="AE38" s="19">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
         <v>431</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>297</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>48</v>
       </c>
-      <c r="R39" s="17" t="s">
+      <c r="T39" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" s="20">
+        <v>45211</v>
+      </c>
+      <c r="Y39" t="s">
         <v>466</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Z39" t="s">
         <v>247</v>
       </c>
-      <c r="X39" t="s">
+      <c r="AA39" t="s">
         <v>49</v>
       </c>
-      <c r="Y39">
-        <v>13</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
+      <c r="AB39">
+        <v>13</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O40" t="s">
+      <c r="AE39" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
         <v>474</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>89</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>49</v>
       </c>
-      <c r="R40" s="17" t="s">
+      <c r="T40" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="W40" s="20">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="21"/>
+      <c r="I44" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="O44" s="16" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="21"/>
+      <c r="Q44" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="V44" s="16" t="s">
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="21"/>
+      <c r="Y44" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-    </row>
-    <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="21"/>
+    </row>
+    <row r="45" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -12315,62 +12723,74 @@
       <c r="F45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="N45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T45" s="12" t="s">
+      <c r="V45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="Z45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="AA45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA45" s="12" t="s">
+      <c r="AD45" s="12" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE45" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>439</v>
       </c>
@@ -12380,7 +12800,7 @@
       <c r="C46" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E46">
@@ -12390,65 +12810,77 @@
         <f t="shared" ref="F46:F60" si="8">IF(D46="--",13,D46-E46-1)</f>
         <v>13</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" s="20">
+        <v>45242</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="L46" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <f t="shared" ref="M46:M59" si="9">IF(K46="--",13,K46-L46-1)</f>
-        <v>13</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" ref="N46:N59" si="9">IF(L46="--",13,L46-M46-1)</f>
+        <v>13</v>
+      </c>
+      <c r="O46" s="19">
+        <v>45280</v>
+      </c>
+      <c r="Q46" t="s">
         <v>390</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>253</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>35</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>6</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" ref="T46:T60" si="10">IF(R46="--",13,R46-S46-1)</f>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" ref="V46:V60" si="10">IF(T46="--",13,T46-U46-1)</f>
         <v>5</v>
       </c>
-      <c r="V46" s="9" t="s">
+      <c r="W46" s="20">
+        <v>45213</v>
+      </c>
+      <c r="Y46" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="W46" s="9" t="s">
+      <c r="Z46" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="AA46" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y46" s="9">
-        <v>3</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <f>IF(Y46="--",13,Y46-Z46-1)</f>
+      <c r="AB46" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f>IF(AB46="--",13,AB46-AC46-1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE46" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>429</v>
       </c>
@@ -12468,65 +12900,77 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I47" t="s">
         <v>349</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>38</v>
       </c>
-      <c r="J47" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47">
+      <c r="K47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47">
         <v>5</v>
       </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
       <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q47" t="s">
         <v>291</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>92</v>
       </c>
-      <c r="Q47" t="s">
-        <v>37</v>
-      </c>
-      <c r="R47">
+      <c r="S47" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="V47" s="9" t="s">
+      <c r="W47" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y47" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="W47" s="9" t="s">
+      <c r="Z47" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="X47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y47" s="9">
+      <c r="AA47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB47" s="9">
         <v>1</v>
       </c>
-      <c r="Z47" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <f t="shared" ref="AA47:AA59" si="11">IF(Y47="--",13,Y47-Z47-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" ref="AD47:AD59" si="11">IF(AB47="--",13,AB47-AC47-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>440</v>
       </c>
@@ -12546,65 +12990,77 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="K48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="9">
         <v>2</v>
       </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O48" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q48" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="R48" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="Q48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R48" s="9">
-        <v>3</v>
-      </c>
-      <c r="S48" s="9">
-        <v>0</v>
-      </c>
-      <c r="T48">
+      <c r="S48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" s="9">
+        <v>3</v>
+      </c>
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y48" t="s">
         <v>292</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Z48" t="s">
         <v>249</v>
       </c>
-      <c r="X48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y48">
+      <c r="AA48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB48">
         <v>4</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>441</v>
       </c>
@@ -12624,65 +13080,77 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I49" t="s">
         <v>365</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>342</v>
       </c>
-      <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49">
+      <c r="K49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49">
         <v>9</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
       <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q49" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="R49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R49" s="9">
+      <c r="S49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49" s="9">
         <v>1</v>
       </c>
-      <c r="S49" s="9">
-        <v>0</v>
-      </c>
-      <c r="T49">
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V49" s="9" t="s">
+      <c r="W49" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y49" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="W49" s="9" t="s">
+      <c r="Z49" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="X49" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y49" s="9">
+      <c r="AA49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB49" s="9">
         <v>2</v>
       </c>
-      <c r="Z49" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA49">
+      <c r="AC49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD49">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE49" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -12702,65 +13170,77 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="G50" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="J50" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="9">
+      <c r="K50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="9">
         <v>1</v>
       </c>
-      <c r="L50" s="9">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q50" t="s">
         <v>408</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>313</v>
       </c>
-      <c r="Q50" t="s">
-        <v>40</v>
-      </c>
-      <c r="R50">
+      <c r="S50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50">
         <v>5</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y50" t="s">
         <v>394</v>
       </c>
-      <c r="W50" t="s">
+      <c r="Z50" t="s">
         <v>127</v>
       </c>
-      <c r="X50" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y50">
+      <c r="AA50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB50">
         <v>6</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE50" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>352</v>
       </c>
@@ -12780,65 +13260,77 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I51" t="s">
         <v>415</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>256</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>43</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>8</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
       <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q51" t="s">
         <v>458</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>289</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>43</v>
       </c>
-      <c r="R51">
-        <v>13</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51">
+        <v>13</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y51" t="s">
         <v>290</v>
       </c>
-      <c r="W51" t="s">
+      <c r="Z51" t="s">
         <v>92</v>
       </c>
-      <c r="X51" t="s">
+      <c r="AA51" t="s">
         <v>43</v>
       </c>
-      <c r="Y51">
+      <c r="AB51">
         <v>5</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE51" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>362</v>
       </c>
@@ -12858,65 +13350,77 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="G52" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="9">
+      <c r="K52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="9">
         <v>4</v>
       </c>
-      <c r="L52" s="9">
+      <c r="M52" s="9">
         <v>1</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O52" s="10" t="s">
+      <c r="O52" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q52" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="P52" s="10" t="s">
+      <c r="R52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R52" s="18" t="s">
+      <c r="S52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="S52" s="10">
-        <v>0</v>
-      </c>
-      <c r="T52" s="10">
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="V52" s="10" t="s">
+      <c r="W52" s="19">
+        <v>45249</v>
+      </c>
+      <c r="Y52" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="W52" s="10" t="s">
+      <c r="Z52" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="X52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y52" s="18" t="s">
+      <c r="AA52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB52" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="10">
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE52" s="19">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>378</v>
       </c>
@@ -12936,65 +13440,77 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I53" t="s">
         <v>310</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>313</v>
       </c>
-      <c r="J53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53" s="17" t="s">
+      <c r="K53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
       <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q53" t="s">
         <v>460</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>258</v>
       </c>
-      <c r="Q53" t="s">
-        <v>37</v>
-      </c>
-      <c r="R53">
+      <c r="S53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53">
         <v>6</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y53" t="s">
         <v>421</v>
       </c>
-      <c r="W53" t="s">
+      <c r="Z53" t="s">
         <v>304</v>
       </c>
-      <c r="X53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y53">
+      <c r="AA53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB53">
         <v>8</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE53" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>318</v>
       </c>
@@ -13014,65 +13530,77 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" s="20">
+        <v>45232</v>
+      </c>
+      <c r="I54" t="s">
         <v>482</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>256</v>
       </c>
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="17" t="s">
+      <c r="K54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
       <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="20">
+        <v>45189</v>
+      </c>
+      <c r="Q54" t="s">
         <v>324</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>249</v>
       </c>
-      <c r="Q54" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="17" t="s">
+      <c r="S54" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" s="20">
+        <v>45245</v>
+      </c>
+      <c r="Y54" t="s">
         <v>366</v>
       </c>
-      <c r="W54" t="s">
+      <c r="Z54" t="s">
         <v>297</v>
       </c>
-      <c r="X54" t="s">
+      <c r="AA54" t="s">
         <v>43</v>
       </c>
-      <c r="Y54">
+      <c r="AB54">
         <v>7</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE54" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>443</v>
       </c>
@@ -13082,7 +13610,7 @@
       <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E55">
@@ -13092,65 +13620,77 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" s="20">
+        <v>45242</v>
+      </c>
+      <c r="I55" t="s">
         <v>483</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>253</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>43</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="L55" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
       <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O55" s="9" t="s">
+      <c r="O55" s="20">
+        <v>45203</v>
+      </c>
+      <c r="Q55" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="P55" s="9" t="s">
+      <c r="R55" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="Q55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R55" s="9">
+      <c r="S55" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55" s="9">
         <v>2</v>
       </c>
-      <c r="S55" s="9">
-        <v>0</v>
-      </c>
-      <c r="T55">
+      <c r="U55" s="9">
+        <v>0</v>
+      </c>
+      <c r="V55">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V55" s="10" t="s">
+      <c r="W55" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y55" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="W55" s="10" t="s">
+      <c r="Z55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="X55" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y55" s="18" t="s">
+      <c r="AA55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB55" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z55" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="10">
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE55" s="19">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>422</v>
       </c>
@@ -13170,65 +13710,77 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I56" t="s">
         <v>398</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>260</v>
       </c>
-      <c r="J56" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56">
+      <c r="K56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L56">
         <v>7</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
       <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q56" t="s">
         <v>295</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>64</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="S56" t="s">
         <v>43</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>10</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="W56" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y56" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="W56" s="10" t="s">
+      <c r="Z56" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="X56" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y56" s="10">
+      <c r="AA56" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB56" s="10">
         <v>6</v>
       </c>
-      <c r="Z56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="10">
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE56" s="19">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>444</v>
       </c>
@@ -13238,7 +13790,7 @@
       <c r="C57" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>507</v>
       </c>
       <c r="E57">
@@ -13248,65 +13800,77 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="G57" s="20">
+        <v>45189</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="J57" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="K57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="18" t="s">
+      <c r="L57" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L57" s="10">
-        <v>0</v>
-      </c>
       <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="19">
+        <v>45280</v>
+      </c>
+      <c r="Q57" t="s">
         <v>461</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>258</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" t="s">
         <v>35</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <v>11</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y57" t="s">
         <v>504</v>
       </c>
-      <c r="W57" t="s">
+      <c r="Z57" t="s">
         <v>284</v>
       </c>
-      <c r="X57" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y57" s="17" t="s">
+      <c r="AA57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB57" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE57" s="20">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -13326,65 +13890,77 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="G58" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K58" s="18" t="s">
+      <c r="L58" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="L58" s="10">
-        <v>0</v>
-      </c>
       <c r="M58" s="10">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="19">
+        <v>45287</v>
+      </c>
+      <c r="Q58" t="s">
         <v>374</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>89</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>48</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <v>11</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" s="20">
+        <v>45245</v>
+      </c>
+      <c r="Y58" t="s">
         <v>505</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Z58" t="s">
         <v>245</v>
       </c>
-      <c r="X58" t="s">
+      <c r="AA58" t="s">
         <v>48</v>
       </c>
-      <c r="Y58">
+      <c r="AB58">
         <v>14</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE58" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -13404,65 +13980,77 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="G59" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I59" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="J59" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="K59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>10</v>
       </c>
-      <c r="L59" s="10">
-        <v>0</v>
-      </c>
       <c r="M59" s="10">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="19">
+        <v>45280</v>
+      </c>
+      <c r="Q59" t="s">
         <v>281</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>275</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>48</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <v>12</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="V59" s="10" t="s">
+      <c r="W59" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y59" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="W59" s="10" t="s">
+      <c r="Z59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="X59" s="10" t="s">
+      <c r="AA59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Y59" s="18" t="s">
+      <c r="AB59" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="Z59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="10">
+      <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE59" s="19">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -13482,50 +14070,56 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="O60" s="10" t="s">
+      <c r="G60" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q60" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="P60" s="10" t="s">
+      <c r="R60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q60" s="10" t="s">
+      <c r="S60" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R60" s="18" t="s">
+      <c r="T60" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="S60" s="10">
-        <v>0</v>
-      </c>
-      <c r="T60" s="10">
+      <c r="U60" s="10">
+        <v>0</v>
+      </c>
+      <c r="V60" s="10">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="W60" s="19">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="O44:T44"/>
-    <mergeCell ref="V44:AA44"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="Y44:AD44"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Y4:AD4"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Y23:AD23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E1048576 L1:L1048576 S1:S1048576 Z1:Z1048576">
+  <conditionalFormatting sqref="E1:E1048576 M1:M1048576 U1:U1048576 AC1:AC1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AA1048576 M1:M1048576 F1:F1048576 T1:T1048576">
+  <conditionalFormatting sqref="F1:F1048576 N1:N1048576 V1:V1048576 AD1:AD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>

--- a/TeamFriends_Keepers.xlsx
+++ b/TeamFriends_Keepers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podrobin\Sites\TeamFriendsFantasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82927DAB-6F3B-4F44-8623-513213B8C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB525CD-7987-41C8-A103-7D32931EC5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{521D0275-5D62-4222-97B6-2F55EF26ED09}"/>
+    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" activeTab="3" xr2:uid="{521D0275-5D62-4222-97B6-2F55EF26ED09}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="516">
   <si>
     <t>Trade Deadline</t>
   </si>
@@ -1572,6 +1572,21 @@
   </si>
   <si>
     <t>add Date</t>
+  </si>
+  <si>
+    <t>2024 Draft Rd</t>
+  </si>
+  <si>
+    <t>2025 Draft Comp</t>
+  </si>
+  <si>
+    <t>Live Laugh Toaster Bath</t>
+  </si>
+  <si>
+    <t>Double Cheeked Up</t>
+  </si>
+  <si>
+    <t>Lemons?</t>
   </si>
 </sst>
 </file>
@@ -1579,9 +1594,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1642,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1655,7 +1677,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1692,16 +1714,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1709,7 +1744,47 @@
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2185,38 +2260,38 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="O4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="V4" s="18" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="V4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3440,38 +3515,38 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="O23" s="18" t="s">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="O23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="V23" s="18" t="s">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="V23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
     </row>
     <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -4685,38 +4760,38 @@
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="H44" s="18" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="H44" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="O44" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="V44" s="18" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="O44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="V44" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -5886,12 +5961,12 @@
     <mergeCell ref="V23:AA23"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:F20">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>OR($F6&lt;3,$F6=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M19">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>OR($M6&lt;3,$M6=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5998,38 +6073,38 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="O4" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="V4" s="18" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="V4" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7259,38 +7334,38 @@
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="O23" s="18" t="s">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="O23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="V23" s="18" t="s">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="V23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
     </row>
     <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -8464,38 +8539,38 @@
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="H44" s="18" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="H44" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="O44" s="18" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="O44" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="V44" s="18" t="s">
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="V44" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -9684,12 +9759,12 @@
     <mergeCell ref="V23:AA23"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576 L1:L1048576 S1:S1048576 Z1:Z1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 M1:M1048576 T1:T1048576 AA1:AA1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9702,8 +9777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4129C0-B280-4886-A5FB-3BA8DDB890C2}">
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE52" sqref="AE52"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9712,22 +9787,22 @@
     <col min="2" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="19" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="11" width="6" customWidth="1"/>
     <col min="12" max="13" width="8.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="19" customWidth="1"/>
     <col min="17" max="17" width="25.28515625" customWidth="1"/>
     <col min="18" max="19" width="6" customWidth="1"/>
     <col min="20" max="21" width="8.42578125" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="20" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="19" customWidth="1"/>
     <col min="25" max="25" width="25.28515625" customWidth="1"/>
     <col min="26" max="27" width="6" customWidth="1"/>
     <col min="28" max="29" width="8.42578125" customWidth="1"/>
     <col min="30" max="30" width="9.7109375" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="20" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="19" customWidth="1"/>
     <col min="33" max="33" width="18.85546875" customWidth="1"/>
     <col min="34" max="35" width="6" customWidth="1"/>
     <col min="36" max="37" width="8.42578125" customWidth="1"/>
@@ -9800,42 +9875,42 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="21"/>
-      <c r="I4" s="18" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="18" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="21"/>
-      <c r="Y4" s="18" t="s">
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="21"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="20"/>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9856,7 +9931,7 @@
       <c r="F5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>508</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -9877,7 +9952,7 @@
       <c r="N5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -9898,7 +9973,7 @@
       <c r="V5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -9919,7 +9994,7 @@
       <c r="AD5" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AE5" s="21" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9943,7 +10018,7 @@
         <f t="shared" ref="F6:F19" si="0">IF(D6="--",13,D6-E6-1)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -9965,7 +10040,7 @@
         <f>IF(L6="--",13,L6-M6-1)</f>
         <v>2</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q6" s="10" t="s">
@@ -9987,7 +10062,7 @@
         <f t="shared" ref="V6:V19" si="1">IF(T6="--",13,T6-U6-1)</f>
         <v>3</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <v>45252</v>
       </c>
       <c r="Y6" t="s">
@@ -10009,7 +10084,7 @@
         <f t="shared" ref="AD6:AD20" si="2">IF(AB6="--",13,AB6-AC6-1)</f>
         <v>5</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10033,7 +10108,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -10055,7 +10130,7 @@
         <f t="shared" ref="N7:N19" si="3">IF(L7="--",13,L7-M7-1)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q7" s="9" t="s">
@@ -10077,7 +10152,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="W7" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y7" s="9" t="s">
@@ -10099,7 +10174,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10123,7 +10198,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -10145,7 +10220,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q8" s="10" t="s">
@@ -10167,7 +10242,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="18">
         <v>45266</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -10189,7 +10264,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10213,7 +10288,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>45280</v>
       </c>
       <c r="I9" t="s">
@@ -10235,7 +10310,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -10257,7 +10332,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y9" t="s">
@@ -10279,7 +10354,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10303,7 +10378,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>45280</v>
       </c>
       <c r="I10" t="s">
@@ -10325,7 +10400,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q10" s="9" t="s">
@@ -10347,7 +10422,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y10" t="s">
@@ -10369,7 +10444,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE10" s="20">
+      <c r="AE10" s="19">
         <v>45220</v>
       </c>
     </row>
@@ -10393,7 +10468,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>45259</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -10415,7 +10490,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>45259</v>
       </c>
       <c r="Q11" t="s">
@@ -10437,7 +10512,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y11" t="s">
@@ -10459,7 +10534,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AE11" s="19">
         <v>45203</v>
       </c>
     </row>
@@ -10483,7 +10558,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I12" t="s">
@@ -10505,7 +10580,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q12" t="s">
@@ -10527,7 +10602,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y12" t="s">
@@ -10549,7 +10624,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AE12" s="19">
         <v>45196</v>
       </c>
     </row>
@@ -10573,7 +10648,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I13" t="s">
@@ -10595,7 +10670,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q13" s="10" t="s">
@@ -10617,7 +10692,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <v>45259</v>
       </c>
       <c r="Y13" s="10" t="s">
@@ -10639,7 +10714,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AE13" s="18">
         <v>45268</v>
       </c>
     </row>
@@ -10663,7 +10738,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I14" t="s">
@@ -10685,7 +10760,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q14" s="10" t="s">
@@ -10707,7 +10782,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W14" s="18">
         <v>45270</v>
       </c>
       <c r="Y14" t="s">
@@ -10729,7 +10804,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AE14" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10753,7 +10828,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I15" t="s">
@@ -10775,7 +10850,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q15" t="s">
@@ -10797,7 +10872,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y15" s="10" t="s">
@@ -10819,7 +10894,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE15" s="19">
+      <c r="AE15" s="18">
         <v>45259</v>
       </c>
     </row>
@@ -10843,7 +10918,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>45288</v>
       </c>
       <c r="I16" t="s">
@@ -10865,7 +10940,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q16" s="10" t="s">
@@ -10887,7 +10962,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>45252</v>
       </c>
       <c r="Y16" t="s">
@@ -10909,7 +10984,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -10933,7 +11008,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -10955,7 +11030,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>45291</v>
       </c>
       <c r="Q17" t="s">
@@ -10977,7 +11052,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="W17" s="20">
+      <c r="W17" s="19">
         <v>45210</v>
       </c>
       <c r="Y17" s="10" t="s">
@@ -10999,7 +11074,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE17" s="19">
+      <c r="AE17" s="18">
         <v>45248</v>
       </c>
     </row>
@@ -11023,7 +11098,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>45222</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -11045,7 +11120,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>45280</v>
       </c>
       <c r="Q18" s="10" t="s">
@@ -11067,7 +11142,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="18">
         <v>45259</v>
       </c>
       <c r="Y18" s="9" t="s">
@@ -11089,7 +11164,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AE18" s="20" t="s">
+      <c r="AE18" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11113,7 +11188,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>45196</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -11135,7 +11210,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>45266</v>
       </c>
       <c r="Q19" s="10" t="s">
@@ -11157,7 +11232,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="18">
         <v>45266</v>
       </c>
       <c r="Y19" s="10" t="s">
@@ -11179,7 +11254,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="AE19" s="18">
         <v>45259</v>
       </c>
     </row>
@@ -11203,49 +11278,49 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AE20" s="19" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="21"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="21"/>
-      <c r="Q23" s="18" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="20"/>
+      <c r="Q23" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="21"/>
-      <c r="Y23" s="18" t="s">
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="20"/>
+      <c r="Y23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="20"/>
     </row>
     <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -11266,7 +11341,7 @@
       <c r="F24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>508</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -11287,7 +11362,7 @@
       <c r="N24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -11308,7 +11383,7 @@
       <c r="V24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="W24" s="22" t="s">
+      <c r="W24" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Y24" s="1" t="s">
@@ -11329,7 +11404,7 @@
       <c r="AD24" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AE24" s="22" t="s">
+      <c r="AE24" s="21" t="s">
         <v>510</v>
       </c>
     </row>
@@ -11353,7 +11428,7 @@
         <f>IF(D25="--",13,D25-E25-1)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I25" t="s">
@@ -11375,7 +11450,7 @@
         <f t="shared" ref="N25:N38" si="4">IF(L25="--",13,L25-M25-1)</f>
         <v>12</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q25" t="s">
@@ -11397,7 +11472,7 @@
         <f t="shared" ref="V25:V40" si="5">IF(T25="--",13,T25-U25-1)</f>
         <v>13</v>
       </c>
-      <c r="W25" s="20">
+      <c r="W25" s="19">
         <v>45231</v>
       </c>
       <c r="Y25" t="s">
@@ -11419,7 +11494,7 @@
         <f t="shared" ref="AD25:AD39" si="6">IF(AB25="--",13,AB25-AC25-1)</f>
         <v>7</v>
       </c>
-      <c r="AE25" s="20" t="s">
+      <c r="AE25" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11443,7 +11518,7 @@
         <f t="shared" ref="F26:F38" si="7">IF(D26="--",13,D26-E26-1)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I26" t="s">
@@ -11465,7 +11540,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q26" t="s">
@@ -11487,7 +11562,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W26" s="20" t="s">
+      <c r="W26" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y26" s="9" t="s">
@@ -11509,7 +11584,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="20" t="s">
+      <c r="AE26" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11533,7 +11608,7 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I27" s="9" t="s">
@@ -11555,7 +11630,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q27" s="10" t="s">
@@ -11577,7 +11652,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="W27" s="19">
+      <c r="W27" s="18">
         <v>45273</v>
       </c>
       <c r="Y27" s="9" t="s">
@@ -11599,7 +11674,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AE27" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11623,7 +11698,7 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I28" t="s">
@@ -11645,7 +11720,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O28" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q28" s="9" t="s">
@@ -11667,7 +11742,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="W28" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y28" t="s">
@@ -11689,7 +11764,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AE28" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11713,7 +11788,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>45287</v>
       </c>
       <c r="I29" t="s">
@@ -11735,7 +11810,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="19">
         <v>45190</v>
       </c>
       <c r="Q29" t="s">
@@ -11757,7 +11832,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="W29" s="20" t="s">
+      <c r="W29" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y29" t="s">
@@ -11779,7 +11854,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AE29" s="20">
+      <c r="AE29" s="19">
         <v>45189</v>
       </c>
     </row>
@@ -11803,7 +11878,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>45231</v>
       </c>
       <c r="I30" t="s">
@@ -11825,7 +11900,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="O30" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q30" t="s">
@@ -11847,7 +11922,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="W30" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y30" s="10" t="s">
@@ -11869,7 +11944,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AE30" s="19">
+      <c r="AE30" s="18">
         <v>45252</v>
       </c>
     </row>
@@ -11893,7 +11968,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I31" t="s">
@@ -11915,7 +11990,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="O31" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q31" t="s">
@@ -11937,7 +12012,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="W31" s="20">
+      <c r="W31" s="19">
         <v>45196</v>
       </c>
       <c r="Y31" s="9" t="s">
@@ -11959,7 +12034,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE31" s="20" t="s">
+      <c r="AE31" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -11983,7 +12058,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>45262</v>
       </c>
       <c r="I32" t="s">
@@ -12005,7 +12080,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q32" s="9" t="s">
@@ -12027,7 +12102,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W32" s="20" t="s">
+      <c r="W32" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y32" t="s">
@@ -12049,7 +12124,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AE32" s="20" t="s">
+      <c r="AE32" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12073,7 +12148,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>45245</v>
       </c>
       <c r="I33" t="s">
@@ -12095,7 +12170,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O33" s="20" t="s">
+      <c r="O33" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q33" t="s">
@@ -12117,7 +12192,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="W33" s="20">
+      <c r="W33" s="19">
         <v>45231</v>
       </c>
       <c r="Y33" t="s">
@@ -12139,7 +12214,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AE33" s="20">
+      <c r="AE33" s="19">
         <v>45239</v>
       </c>
     </row>
@@ -12163,7 +12238,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="18">
         <v>45273</v>
       </c>
       <c r="I34" t="s">
@@ -12185,7 +12260,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q34" s="10" t="s">
@@ -12207,7 +12282,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="W34" s="19">
+      <c r="W34" s="18">
         <v>45273</v>
       </c>
       <c r="Y34" t="s">
@@ -12229,7 +12304,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="AE34" s="20" t="s">
+      <c r="AE34" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12253,7 +12328,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>45287</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -12275,7 +12350,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q35" t="s">
@@ -12297,7 +12372,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="W35" s="20" t="s">
+      <c r="W35" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y35" t="s">
@@ -12319,7 +12394,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="AE35" s="20">
+      <c r="AE35" s="19">
         <v>45208</v>
       </c>
     </row>
@@ -12343,7 +12418,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>45238</v>
       </c>
       <c r="I36" t="s">
@@ -12365,7 +12440,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O36" s="20" t="s">
+      <c r="O36" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q36" t="s">
@@ -12387,7 +12462,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="W36" s="20">
+      <c r="W36" s="19">
         <v>45227</v>
       </c>
       <c r="Y36" s="9" t="s">
@@ -12409,7 +12484,7 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE36" s="20" t="s">
+      <c r="AE36" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12433,7 +12508,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>45217</v>
       </c>
       <c r="I37" t="s">
@@ -12455,7 +12530,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="O37" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q37" s="9" t="s">
@@ -12477,7 +12552,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="W37" s="20" t="s">
+      <c r="W37" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y37" t="s">
@@ -12499,7 +12574,7 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AE37" s="20">
+      <c r="AE37" s="19">
         <v>45196</v>
       </c>
     </row>
@@ -12523,7 +12598,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="18">
         <v>45281</v>
       </c>
       <c r="I38" t="s">
@@ -12545,7 +12620,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q38" s="10" t="s">
@@ -12567,7 +12642,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="W38" s="19">
+      <c r="W38" s="18">
         <v>45268</v>
       </c>
       <c r="Y38" s="10" t="s">
@@ -12589,7 +12664,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="AE38" s="19">
+      <c r="AE38" s="18">
         <v>45267</v>
       </c>
     </row>
@@ -12613,7 +12688,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="W39" s="20">
+      <c r="W39" s="19">
         <v>45211</v>
       </c>
       <c r="Y39" t="s">
@@ -12635,7 +12710,7 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AE39" s="20" t="s">
+      <c r="AE39" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12659,7 +12734,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="W40" s="20">
+      <c r="W40" s="19">
         <v>45238</v>
       </c>
     </row>
@@ -12667,42 +12742,42 @@
     <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="21"/>
-      <c r="I44" s="18" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+      <c r="I44" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="21"/>
-      <c r="Q44" s="18" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="20"/>
+      <c r="Q44" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="21"/>
-      <c r="Y44" s="18" t="s">
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="20"/>
+      <c r="Y44" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="21"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -12723,7 +12798,7 @@
       <c r="F45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="21" t="s">
         <v>510</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -12744,7 +12819,7 @@
       <c r="N45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="O45" s="22" t="s">
+      <c r="O45" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -12765,7 +12840,7 @@
       <c r="V45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="W45" s="22" t="s">
+      <c r="W45" s="21" t="s">
         <v>510</v>
       </c>
       <c r="Y45" s="1" t="s">
@@ -12786,7 +12861,7 @@
       <c r="AD45" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AE45" s="22" t="s">
+      <c r="AE45" s="21" t="s">
         <v>510</v>
       </c>
     </row>
@@ -12810,7 +12885,7 @@
         <f t="shared" ref="F46:F60" si="8">IF(D46="--",13,D46-E46-1)</f>
         <v>13</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="19">
         <v>45242</v>
       </c>
       <c r="I46" s="10" t="s">
@@ -12832,7 +12907,7 @@
         <f t="shared" ref="N46:N59" si="9">IF(L46="--",13,L46-M46-1)</f>
         <v>13</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="18">
         <v>45280</v>
       </c>
       <c r="Q46" t="s">
@@ -12854,7 +12929,7 @@
         <f t="shared" ref="V46:V60" si="10">IF(T46="--",13,T46-U46-1)</f>
         <v>5</v>
       </c>
-      <c r="W46" s="20">
+      <c r="W46" s="19">
         <v>45213</v>
       </c>
       <c r="Y46" s="9" t="s">
@@ -12876,7 +12951,7 @@
         <f>IF(AB46="--",13,AB46-AC46-1)</f>
         <v>2</v>
       </c>
-      <c r="AE46" s="20" t="s">
+      <c r="AE46" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12900,7 +12975,7 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I47" t="s">
@@ -12922,7 +12997,7 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="O47" s="20" t="s">
+      <c r="O47" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q47" t="s">
@@ -12944,7 +13019,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="W47" s="20" t="s">
+      <c r="W47" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y47" s="9" t="s">
@@ -12966,7 +13041,7 @@
         <f t="shared" ref="AD47:AD59" si="11">IF(AB47="--",13,AB47-AC47-1)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="20" t="s">
+      <c r="AE47" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -12990,7 +13065,7 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I48" s="9" t="s">
@@ -13012,7 +13087,7 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O48" s="20" t="s">
+      <c r="O48" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q48" s="9" t="s">
@@ -13034,7 +13109,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="W48" s="20" t="s">
+      <c r="W48" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y48" t="s">
@@ -13056,7 +13131,7 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="AE48" s="20" t="s">
+      <c r="AE48" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13080,7 +13155,7 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I49" t="s">
@@ -13102,7 +13177,7 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="O49" s="20" t="s">
+      <c r="O49" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q49" s="9" t="s">
@@ -13124,7 +13199,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W49" s="20" t="s">
+      <c r="W49" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y49" s="9" t="s">
@@ -13146,7 +13221,7 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AE49" s="20" t="s">
+      <c r="AE49" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13170,7 +13245,7 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I50" s="9" t="s">
@@ -13192,7 +13267,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q50" t="s">
@@ -13214,7 +13289,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="W50" s="20" t="s">
+      <c r="W50" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y50" t="s">
@@ -13236,7 +13311,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AE50" s="20" t="s">
+      <c r="AE50" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13260,7 +13335,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I51" t="s">
@@ -13282,7 +13357,7 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="O51" s="20" t="s">
+      <c r="O51" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q51" t="s">
@@ -13304,7 +13379,7 @@
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="W51" s="20" t="s">
+      <c r="W51" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y51" t="s">
@@ -13326,7 +13401,7 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AE51" s="20" t="s">
+      <c r="AE51" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13350,7 +13425,7 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I52" s="9" t="s">
@@ -13372,7 +13447,7 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O52" s="20" t="s">
+      <c r="O52" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q52" s="10" t="s">
@@ -13394,7 +13469,7 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="W52" s="19">
+      <c r="W52" s="18">
         <v>45249</v>
       </c>
       <c r="Y52" s="10" t="s">
@@ -13416,7 +13491,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AE52" s="19">
+      <c r="AE52" s="18">
         <v>45288</v>
       </c>
     </row>
@@ -13440,7 +13515,7 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I53" t="s">
@@ -13462,7 +13537,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O53" s="20" t="s">
+      <c r="O53" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q53" t="s">
@@ -13484,7 +13559,7 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="W53" s="20" t="s">
+      <c r="W53" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y53" t="s">
@@ -13506,7 +13581,7 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="AE53" s="20" t="s">
+      <c r="AE53" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13530,7 +13605,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="19">
         <v>45232</v>
       </c>
       <c r="I54" t="s">
@@ -13552,7 +13627,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="19">
         <v>45189</v>
       </c>
       <c r="Q54" t="s">
@@ -13574,7 +13649,7 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="W54" s="20">
+      <c r="W54" s="19">
         <v>45245</v>
       </c>
       <c r="Y54" t="s">
@@ -13596,7 +13671,7 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="AE54" s="20" t="s">
+      <c r="AE54" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13620,7 +13695,7 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="19">
         <v>45242</v>
       </c>
       <c r="I55" t="s">
@@ -13642,7 +13717,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="19">
         <v>45203</v>
       </c>
       <c r="Q55" s="9" t="s">
@@ -13664,7 +13739,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="W55" s="20" t="s">
+      <c r="W55" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y55" s="10" t="s">
@@ -13686,7 +13761,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AE55" s="19">
+      <c r="AE55" s="18">
         <v>45262</v>
       </c>
     </row>
@@ -13710,7 +13785,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I56" t="s">
@@ -13732,7 +13807,7 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="O56" s="20" t="s">
+      <c r="O56" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q56" t="s">
@@ -13754,7 +13829,7 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="W56" s="20" t="s">
+      <c r="W56" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y56" s="10" t="s">
@@ -13776,7 +13851,7 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AE56" s="19">
+      <c r="AE56" s="18">
         <v>45259</v>
       </c>
     </row>
@@ -13800,7 +13875,7 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="19">
         <v>45189</v>
       </c>
       <c r="I57" s="10" t="s">
@@ -13822,7 +13897,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O57" s="19">
+      <c r="O57" s="18">
         <v>45280</v>
       </c>
       <c r="Q57" t="s">
@@ -13844,7 +13919,7 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="W57" s="20" t="s">
+      <c r="W57" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y57" t="s">
@@ -13866,7 +13941,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AE57" s="20">
+      <c r="AE57" s="19">
         <v>45210</v>
       </c>
     </row>
@@ -13890,7 +13965,7 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I58" s="10" t="s">
@@ -13912,7 +13987,7 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O58" s="19">
+      <c r="O58" s="18">
         <v>45287</v>
       </c>
       <c r="Q58" t="s">
@@ -13934,7 +14009,7 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="W58" s="20">
+      <c r="W58" s="19">
         <v>45245</v>
       </c>
       <c r="Y58" t="s">
@@ -13956,7 +14031,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AE58" s="20" t="s">
+      <c r="AE58" s="19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13980,7 +14055,7 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>509</v>
       </c>
       <c r="I59" s="10" t="s">
@@ -14002,7 +14077,7 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O59" s="18">
         <v>45280</v>
       </c>
       <c r="Q59" t="s">
@@ -14024,7 +14099,7 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="W59" s="20" t="s">
+      <c r="W59" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Y59" s="10" t="s">
@@ -14046,7 +14121,7 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AE59" s="19">
+      <c r="AE59" s="18">
         <v>45287</v>
       </c>
     </row>
@@ -14070,7 +14145,7 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="19" t="s">
         <v>509</v>
       </c>
       <c r="Q60" s="10" t="s">
@@ -14092,7 +14167,7 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="W60" s="19">
+      <c r="W60" s="18">
         <v>45259</v>
       </c>
     </row>
@@ -14115,12 +14190,12 @@
     <mergeCell ref="Y23:AD23"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576 M1:M1048576 U1:U1048576 AC1:AC1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 N1:N1048576 V1:V1048576 AD1:AD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14131,14 +14206,2682 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D12C5D-57C9-444B-8392-C4EABD304056}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44:V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="19" width="6" customWidth="1"/>
+    <col min="20" max="21" width="8.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="25.28515625" customWidth="1"/>
+    <col min="26" max="27" width="6" customWidth="1"/>
+    <col min="28" max="29" width="8.42578125" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="19" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="35" width="6" customWidth="1"/>
+    <col min="36" max="37" width="8.42578125" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" customWidth="1"/>
+    <col min="40" max="40" width="18.85546875" customWidth="1"/>
+    <col min="41" max="42" width="6" customWidth="1"/>
+    <col min="43" max="43" width="8.42578125" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" customWidth="1"/>
+    <col min="48" max="49" width="6" customWidth="1"/>
+    <col min="50" max="50" width="8.42578125" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" customWidth="1"/>
+    <col min="52" max="52" width="9.7109375" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" customWidth="1"/>
+    <col min="55" max="56" width="6" customWidth="1"/>
+    <col min="57" max="57" width="8.42578125" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" customWidth="1"/>
+    <col min="59" max="59" width="9.7109375" customWidth="1"/>
+    <col min="61" max="61" width="18.85546875" customWidth="1"/>
+    <col min="62" max="63" width="6" customWidth="1"/>
+    <col min="64" max="64" width="8.42578125" customWidth="1"/>
+    <col min="65" max="65" width="8.28515625" customWidth="1"/>
+    <col min="66" max="66" width="9.7109375" customWidth="1"/>
+    <col min="68" max="68" width="18.85546875" customWidth="1"/>
+    <col min="69" max="70" width="6" customWidth="1"/>
+    <col min="71" max="71" width="8.42578125" customWidth="1"/>
+    <col min="72" max="72" width="8.28515625" customWidth="1"/>
+    <col min="73" max="73" width="9.7109375" customWidth="1"/>
+    <col min="75" max="75" width="18.85546875" customWidth="1"/>
+    <col min="76" max="77" width="6" customWidth="1"/>
+    <col min="78" max="79" width="8.28515625" customWidth="1"/>
+    <col min="80" max="80" width="9.7109375" customWidth="1"/>
+    <col min="82" max="82" width="18.85546875" customWidth="1"/>
+    <col min="83" max="84" width="6" customWidth="1"/>
+    <col min="85" max="86" width="8.28515625" customWidth="1"/>
+    <col min="87" max="87" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45248</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="20"/>
+      <c r="Y4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="20"/>
+    </row>
+    <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24">
+        <f t="shared" ref="F6:F19" si="0">IF(D6="--",13,D6-E6-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24">
+        <f>IF(L6="--",13,L6-M6-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26">
+        <f t="shared" ref="V6:V19" si="1">IF(T6="--",13,T6-U6-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24">
+        <f t="shared" ref="AD6:AD20" si="2">IF(AB6="--",13,AB6-AC6-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24">
+        <f t="shared" ref="N7:N19" si="3">IF(L7="--",13,L7-M7-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W9" s="25"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W11" s="25"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W12" s="25"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="18"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W15" s="25"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="18"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W16" s="27"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W17" s="25"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="18"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="18"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+    </row>
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE24" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24">
+        <f>IF(D25="--",13,D25-E25-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24">
+        <f t="shared" ref="N25:N38" si="4">IF(L25="--",13,L25-M25-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O25" s="25"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24">
+        <f t="shared" ref="V25:V40" si="5">IF(T25="--",13,T25-U25-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="W25" s="25"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24">
+        <f t="shared" ref="AD25:AD39" si="6">IF(AB25="--",13,AB25-AC25-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24">
+        <f t="shared" ref="F26:F38" si="7">IF(D26="--",13,D26-E26-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O26" s="25"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W26" s="25"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O27" s="25"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W28" s="25"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O29" s="25"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W29" s="25"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O30" s="25"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W30" s="25"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="AE30" s="18"/>
+    </row>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O31" s="25"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W31" s="25"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O32" s="25"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W32" s="25"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O33" s="25"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W33" s="25"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W34" s="27"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W35" s="25"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O36" s="25"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W36" s="25"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W37" s="25"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W38" s="27"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="AE38" s="18"/>
+    </row>
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W39" s="25"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W40" s="25"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+    </row>
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+    </row>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="20"/>
+    </row>
+    <row r="45" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="W45" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD45" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE45" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24">
+        <f t="shared" ref="F46:F60" si="8">IF(D46="--",13,D46-E46-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26">
+        <f t="shared" ref="N46:N59" si="9">IF(L46="--",13,L46-M46-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O46" s="27"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24">
+        <f t="shared" ref="V46:V60" si="10">IF(T46="--",13,T46-U46-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="W46" s="25"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="24">
+        <f>IF(AB46="--",13,AB46-AC46-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O47" s="25"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W47" s="25"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="24">
+        <f t="shared" ref="AD47:AD59" si="11">IF(AB47="--",13,AB47-AC47-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W48" s="25"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O49" s="25"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W49" s="25"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O50" s="25"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W50" s="25"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O51" s="25"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W51" s="25"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O52" s="25"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W52" s="27"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="26"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AE52" s="18"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O53" s="25"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W53" s="25"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O54" s="25"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W54" s="25"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O55" s="25"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W55" s="25"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AE55" s="18"/>
+    </row>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O56" s="25"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W56" s="25"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AE56" s="18"/>
+    </row>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O57" s="27"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W57" s="25"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O58" s="27"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W58" s="25"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O59" s="27"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W59" s="25"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="26">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="AE59" s="18"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="W60" s="27"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="24"/>
+    </row>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="Y44:AD44"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Y23:AD23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E1:E1048576 M1:M1048576 U1:U1048576 AC1:AC1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576 N1:N1048576 V1:V1048576 AD1:AD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>2.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>